--- a/Знакомство с базами данных/DZ1.xlsx
+++ b/Знакомство с базами данных/DZ1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Автопарк" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="174">
   <si>
     <t>Марка авто</t>
   </si>
@@ -400,9 +400,6 @@
     <t>Время отбытия прибытия</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -499,9 +493,6 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
     <t>4.2</t>
   </si>
   <si>
@@ -526,15 +517,6 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>ID Время</t>
   </si>
   <si>
@@ -548,6 +530,21 @@
   </si>
   <si>
     <t>5.1-5.2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -598,17 +595,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -907,320 +912,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>13264</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>58465</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>2015</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>23</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>19</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1354</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1265153</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2017</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>23</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>94</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>16543</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>2812</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>2019</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>13</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>16413</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>6812</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>2021</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>14</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>8</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>4613</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>86512</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>2018</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>28</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>70</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>41658</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>896512</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>2020</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>14</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>8</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>416341</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>2020</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>23</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>19</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1412318</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>6512</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>2018</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>23</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>19</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1968456</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.41260000000000002</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1990</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>33</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>34</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1256,564 +1261,564 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,232 +1840,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>53548</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>44576</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>44941</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1684</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>44577</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>44942</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>6000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>18645132</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>44578</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>44943</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>4000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>1265123</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>44579</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>44944</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3000</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>189651</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>44580</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>44945</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>7000</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>864321</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>44581</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>44946</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>5300</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>2165416</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>44582</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>44947</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>5400</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2198465</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>44583</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>44948</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>5500</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>19651</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>44584</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>44949</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>5600</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2073,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,914 +2102,914 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7" t="s">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P6" s="2"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="7" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="5"/>
+      <c r="J9" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7" t="s">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2" t="s">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="7" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="5"/>
+      <c r="J13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7" t="s">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2" t="s">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P14" s="2"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7" t="s">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2" t="s">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7" t="s">
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="5"/>
+      <c r="J21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="P22" s="2"/>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="7" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="5"/>
+      <c r="L25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7" t="s">
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3015,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3028,703 +3033,703 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>171</v>
+      <c r="F1" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44824</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>11</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>173</v>
+      <c r="F3" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44824</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>128</v>
+      <c r="F4" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44824</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>13</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>172</v>
+      <c r="F5" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44824</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>14</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>160</v>
+      <c r="F6" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44824</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>15</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>174</v>
+      <c r="F7" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44824</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>44824</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B18" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C18" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
         <v>17</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>44824</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>44825</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>13</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1">
+        <v>14</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B28" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C28" s="1">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D28" s="1">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>17</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
         <v>18</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>44824</v>
-      </c>
-      <c r="B11" s="2">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
         <v>19</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E31" s="1">
+        <v>5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B32" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>44824</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1">
+        <v>6</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1">
+        <v>11</v>
+      </c>
+      <c r="E33" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="F33" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="F34" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>44826</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13</v>
+      </c>
+      <c r="E35" s="1">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F35" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7</v>
-      </c>
-      <c r="D18" s="2">
-        <v>16</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B20" s="2">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>19</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>44825</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>12</v>
-      </c>
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B26" s="2">
-        <v>6</v>
-      </c>
-      <c r="C26" s="2">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B27" s="2">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2">
-        <v>15</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B28" s="2">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2">
-        <v>16</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B29" s="2">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>19</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>20</v>
-      </c>
-      <c r="E32" s="2">
-        <v>6</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B33" s="2">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>44826</v>
-      </c>
-      <c r="B35" s="2">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F36" s="4"/>
+      <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F37" s="4"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="4"/>
+      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
